--- a/searches/abstracts/coding chjh/falsenegative_abstracts_extracted.xlsx
+++ b/searches/abstracts/coding chjh/falsenegative_abstracts_extracted.xlsx
@@ -911,13 +911,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="110.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,6 +935,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -943,6 +946,9 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -951,6 +957,9 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -959,6 +968,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -967,6 +979,9 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -975,6 +990,9 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -983,6 +1001,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -991,6 +1012,9 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -999,6 +1023,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1007,6 +1034,9 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1015,6 +1045,9 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1023,6 +1056,9 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1031,6 +1067,9 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1039,6 +1078,9 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1047,85 +1089,118 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
